--- a/docs/test/Test Case.xlsx
+++ b/docs/test/Test Case.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -150,7 +150,7 @@
     <t>Tested Date</t>
   </si>
   <si>
-    <t>Function 01: Read Article ()</t>
+    <t>Function 01: Read Article</t>
   </si>
   <si>
     <t>UI01</t>
@@ -233,7 +233,8 @@
     <t>Just move to the page to share but there is no article link</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>Fail
+B001</t>
   </si>
   <si>
     <t>UI06</t>
@@ -289,7 +290,7 @@
     <t>Article page loads normally, only missing the image, layout not broken</t>
   </si>
   <si>
-    <t>Function 02: View Statistics ()</t>
+    <t xml:space="preserve">Function 02: View Statistics </t>
   </si>
   <si>
     <t>Update active user count</t>
@@ -307,6 +308,10 @@
     <t>The active user count stays still</t>
   </si>
   <si>
+    <t>Fail
+B002</t>
+  </si>
+  <si>
     <t>THKhang</t>
   </si>
   <si>
@@ -415,8 +420,7 @@
         <rFont val="Calibri"/>
         <color rgb="FF0070C0"/>
       </rPr>
-      <t>Tổng bí thư Tô Lâm dự lễ khánh thành 
-trụ sở Bộ Công an</t>
+      <t>Tổng bí thư Tô Lâm dự lễ khánh thành trụ sở Bộ Công an</t>
     </r>
     <r>
       <rPr>
@@ -487,16 +491,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">No error message is send. 
-</t>
+    <t xml:space="preserve">No error message is send. </t>
+  </si>
+  <si>
+    <t>Fail
+B003</t>
   </si>
   <si>
     <t>The keyword for search is too long
  (exceed 200 characters)</t>
   </si>
   <si>
-    <t>1. Fill up in the search section with the search keywords that has the length
- is exceed 200 (E.g 250 'a' characters)
+    <t>1. Fill up in the search section with the search keywords that has the length is exceed 200 (E.g 250 'a' characters)
 2. Pressing Enter</t>
   </si>
   <si>
@@ -583,6 +589,10 @@
 first 200 character.</t>
   </si>
   <si>
+    <t>Fail
+B004</t>
+  </si>
+  <si>
     <t>Filter option after doing search</t>
   </si>
   <si>
@@ -601,6 +611,10 @@
     <t>After step 1, no filter option/ icon are shown</t>
   </si>
   <si>
+    <t>Fail
+B005</t>
+  </si>
+  <si>
     <t>Search with valid article tag.</t>
   </si>
   <si>
@@ -668,6 +682,10 @@
     <t>The system consider the author name
  as the article title or tag. The result of a 
 lot of valid articles are not shown.</t>
+  </si>
+  <si>
+    <t>Fail
+B006</t>
   </si>
   <si>
     <t>Autocomplete suggestions appear</t>
@@ -786,6 +804,10 @@
     </r>
   </si>
   <si>
+    <t>Fail
+B007</t>
+  </si>
+  <si>
     <t>Function 04: Filter</t>
   </si>
   <si>
@@ -1267,7 +1289,7 @@
     </r>
   </si>
   <si>
-    <t>Function 05: Create Article ()</t>
+    <t>Function 05: Create Article</t>
   </si>
   <si>
     <t>Create article without selecting a category</t>
@@ -1583,11 +1605,10 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="'Times New Roman'"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1644,25 +1665,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1677,57 +1693,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1745,57 +1746,30 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2218,7 +2192,7 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2230,7 +2204,7 @@
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3242,9 +3216,9 @@
     <col customWidth="1" min="1" max="1" width="25.57"/>
     <col customWidth="1" min="2" max="2" width="8.86"/>
     <col customWidth="1" min="3" max="3" width="39.71"/>
-    <col customWidth="1" min="4" max="4" width="68.43"/>
+    <col customWidth="1" min="4" max="4" width="102.86"/>
     <col customWidth="1" min="5" max="5" width="61.29"/>
-    <col customWidth="1" min="6" max="6" width="35.86"/>
+    <col customWidth="1" min="6" max="6" width="40.86"/>
     <col customWidth="1" min="7" max="7" width="8.86"/>
     <col customWidth="1" min="8" max="9" width="13.71"/>
     <col customWidth="1" min="10" max="10" width="11.86"/>
@@ -3252,1596 +3226,1596 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" ht="55.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" ht="55.5" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" ht="55.5" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" ht="55.5" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" ht="55.5" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" ht="55.5" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" ht="55.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="55.5" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="55.5" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="7"/>
     </row>
-    <row r="12" ht="55.5" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="I17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="E19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="29" t="s">
+      <c r="H19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="29" t="s">
+      <c r="H20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
+      <c r="I20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="E21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="29" t="s">
+      <c r="H21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
+      <c r="I21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="8"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
+      <c r="A23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="25" t="s">
+    <row r="24" ht="30.0" customHeight="1">
+      <c r="A24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="25" t="s">
+      <c r="H24" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="8"/>
+      <c r="I24" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="7"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="36" t="s">
+    <row r="25" ht="30.75" customHeight="1">
+      <c r="A25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="36" t="s">
+      <c r="J25" s="30"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" ht="29.25" customHeight="1">
+      <c r="A26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="8"/>
+      <c r="I26" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="7"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="25" t="s">
+    <row r="27" ht="27.75" customHeight="1">
+      <c r="A27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="25" t="s">
+      <c r="B27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="8"/>
+      <c r="I27" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="25" t="s">
+      <c r="C28" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="25" t="s">
+      <c r="H28" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="8"/>
+      <c r="I28" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="7"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="36" t="s">
+    <row r="29" ht="28.5" customHeight="1">
+      <c r="A29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="36" t="s">
+      <c r="C29" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="8"/>
+      <c r="I29" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="25" t="s">
+      <c r="C30" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="25" t="s">
+      <c r="H30" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
+      <c r="I30" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="36" t="s">
+      <c r="C31" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="36" t="s">
+      <c r="H31" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
+      <c r="I31" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="25" t="s">
+    <row r="32" ht="27.75" customHeight="1">
+      <c r="A32" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="25" t="s">
+      <c r="C32" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
+      <c r="I32" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
+      <c r="A34" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
     </row>
     <row r="35" ht="30.75" customHeight="1">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="36" t="s">
+      <c r="C36" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
+      <c r="H36" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="25" t="s">
+      <c r="C37" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
+      <c r="I37" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="17"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="36" t="s">
+      <c r="C38" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
+      <c r="I38" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="25" t="s">
+      <c r="C39" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
+      <c r="H39" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="36" t="s">
+      <c r="F40" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I40" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
+      <c r="I40" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="33"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="C41" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
+      <c r="I41" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="36" t="s">
+      <c r="C42" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I42" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
+      <c r="I42" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="8"/>
+      <c r="A44" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="13" t="s">
+      <c r="C45" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="8"/>
+      <c r="H45" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="23" t="s">
+      <c r="C46" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="8"/>
+      <c r="H46" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="13" t="s">
+      <c r="C47" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="8"/>
+      <c r="I47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" ht="110.25" customHeight="1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F48" s="42" t="s">
+      <c r="C48" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="8"/>
+      <c r="H48" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" ht="110.25" customHeight="1">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" s="42" t="s">
+      <c r="C49" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="44" t="s">
+      <c r="G49" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
+      <c r="H49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="30"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="8"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
